--- a/GATEWAY/A1#111#MEDIANETSERVIZISRLX1/MedianetServizi/4Handy.it/2025.12/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#MEDIANETSERVIZISRLX1/MedianetServizi/4Handy.it/2025.12/accreditamento-checklist_V8.2.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A1#111#MEDIANETSERVIZISRLX1\MedianetServizi\4Handy.it\2025.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83C9C19-D998-406F-BB63-D8666D16EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34272E6C-7D81-4E49-8267-7F44315883D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -987,24 +987,6 @@
     <t>2025-12-29T17:11:37.522+01:00</t>
   </si>
   <si>
-    <t>2026-01-19T10:31:17.801+01:00</t>
-  </si>
-  <si>
-    <t>653f8c210705c65d3f07fe196f83a843</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.70.4.4.f280c5bb7f995fb5e1a21e4781710a56b1131f86866da264f3ad3096bed079f7.f77cfa0aeb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-01-19T12:13:00.818+01:00</t>
-  </si>
-  <si>
-    <t>6108ea9e81845a212abee05c983b9fc3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.70.4.4.edd2859e5fb7a43c510695a407665149c8f34266c37e252ef70258600df83ac9.e84cf6a1ef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>162223f9dca83a36ceddf56f4576993b</t>
   </si>
   <si>
@@ -1201,6 +1183,24 @@
   </si>
   <si>
     <t>2026-02-16T10:33:39.927+01:00</t>
+  </si>
+  <si>
+    <t>2026-02-17T10:04:00.782+01:00</t>
+  </si>
+  <si>
+    <t>2026-02-17T11:08:43.227+01:00</t>
+  </si>
+  <si>
+    <t>74f8f911544fe49eb1b6c04266a71506</t>
+  </si>
+  <si>
+    <t>002da5eda0fbd4b90a7e3e60d375e6b7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.70.4.4.f280c5bb7f995fb5e1a21e4781710a56b1131f86866da264f3ad3096bed079f7.86614db4f2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.70.4.4.edd2859e5fb7a43c510695a407665149c8f34266c37e252ef70258600df83ac9.2afde9c446^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3255,10 +3255,10 @@
   <dimension ref="A1:W611"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3741,7 +3741,7 @@
         <v>51</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P14" s="35" t="s">
         <v>95</v>
@@ -3753,7 +3753,7 @@
         <v>95</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="T14" s="35"/>
       <c r="U14" s="36" t="s">
@@ -3796,7 +3796,7 @@
         <v>51</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P15" s="35" t="s">
         <v>95</v>
@@ -3808,7 +3808,7 @@
         <v>95</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="T15" s="35"/>
       <c r="U15" s="36" t="s">
@@ -3859,7 +3859,7 @@
         <v>51</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P16" s="35" t="s">
         <v>95</v>
@@ -3871,7 +3871,7 @@
         <v>51</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T16" s="35" t="s">
         <v>93</v>
@@ -3922,7 +3922,7 @@
         <v>51</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P17" s="35" t="s">
         <v>95</v>
@@ -3934,7 +3934,7 @@
         <v>51</v>
       </c>
       <c r="S17" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T17" s="35" t="s">
         <v>93</v>
@@ -3985,7 +3985,7 @@
         <v>51</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P18" s="35" t="s">
         <v>95</v>
@@ -3997,7 +3997,7 @@
         <v>51</v>
       </c>
       <c r="S18" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T18" s="35" t="s">
         <v>93</v>
@@ -4048,7 +4048,7 @@
         <v>51</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P19" s="35" t="s">
         <v>95</v>
@@ -4060,7 +4060,7 @@
         <v>51</v>
       </c>
       <c r="S19" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T19" s="35" t="s">
         <v>93</v>
@@ -4091,13 +4091,13 @@
         <v>46044</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J20" s="45" t="s">
         <v>51</v>
@@ -4111,7 +4111,7 @@
         <v>51</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P20" s="35" t="s">
         <v>95</v>
@@ -4123,7 +4123,7 @@
         <v>51</v>
       </c>
       <c r="S20" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T20" s="35" t="s">
         <v>93</v>
@@ -4174,7 +4174,7 @@
         <v>51</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P21" s="35" t="s">
         <v>95</v>
@@ -4186,7 +4186,7 @@
         <v>51</v>
       </c>
       <c r="S21" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T21" s="35" t="s">
         <v>93</v>
@@ -4237,7 +4237,7 @@
         <v>51</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P22" s="35" t="s">
         <v>95</v>
@@ -4249,7 +4249,7 @@
         <v>51</v>
       </c>
       <c r="S22" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T22" s="35" t="s">
         <v>93</v>
@@ -4300,7 +4300,7 @@
         <v>51</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P23" s="35" t="s">
         <v>95</v>
@@ -4312,7 +4312,7 @@
         <v>51</v>
       </c>
       <c r="S23" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T23" s="35" t="s">
         <v>93</v>
@@ -4363,7 +4363,7 @@
         <v>51</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P24" s="35" t="s">
         <v>95</v>
@@ -4375,7 +4375,7 @@
         <v>51</v>
       </c>
       <c r="S24" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T24" s="35" t="s">
         <v>93</v>
@@ -4426,7 +4426,7 @@
         <v>51</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P25" s="35" t="s">
         <v>95</v>
@@ -4438,7 +4438,7 @@
         <v>51</v>
       </c>
       <c r="S25" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T25" s="35" t="s">
         <v>93</v>
@@ -4489,7 +4489,7 @@
         <v>51</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P26" s="35" t="s">
         <v>95</v>
@@ -4501,7 +4501,7 @@
         <v>51</v>
       </c>
       <c r="S26" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T26" s="35" t="s">
         <v>93</v>
@@ -4552,7 +4552,7 @@
         <v>51</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P27" s="35" t="s">
         <v>95</v>
@@ -4564,7 +4564,7 @@
         <v>51</v>
       </c>
       <c r="S27" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T27" s="35" t="s">
         <v>93</v>
@@ -4615,7 +4615,7 @@
         <v>51</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P28" s="35" t="s">
         <v>95</v>
@@ -4627,7 +4627,7 @@
         <v>51</v>
       </c>
       <c r="S28" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T28" s="35" t="s">
         <v>93</v>
@@ -4678,7 +4678,7 @@
         <v>51</v>
       </c>
       <c r="O29" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P29" s="35" t="s">
         <v>95</v>
@@ -4690,7 +4690,7 @@
         <v>51</v>
       </c>
       <c r="S29" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T29" s="35" t="s">
         <v>93</v>
@@ -4721,13 +4721,13 @@
         <v>46044</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J30" s="35" t="s">
         <v>51</v>
@@ -4741,7 +4741,7 @@
         <v>51</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P30" s="35" t="s">
         <v>95</v>
@@ -4753,7 +4753,7 @@
         <v>51</v>
       </c>
       <c r="S30" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T30" s="35" t="s">
         <v>93</v>
@@ -4784,13 +4784,13 @@
         <v>46043</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J31" s="35" t="s">
         <v>51</v>
@@ -4804,7 +4804,7 @@
         <v>51</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P31" s="35" t="s">
         <v>95</v>
@@ -4816,7 +4816,7 @@
         <v>51</v>
       </c>
       <c r="S31" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T31" s="35" t="s">
         <v>93</v>
@@ -4847,13 +4847,13 @@
         <v>46043</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J32" s="35" t="s">
         <v>51</v>
@@ -4867,7 +4867,7 @@
         <v>51</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P32" s="35" t="s">
         <v>95</v>
@@ -4879,7 +4879,7 @@
         <v>51</v>
       </c>
       <c r="S32" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T32" s="35" t="s">
         <v>93</v>
@@ -4910,13 +4910,13 @@
         <v>46043</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J33" s="35" t="s">
         <v>51</v>
@@ -4930,7 +4930,7 @@
         <v>51</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P33" s="35" t="s">
         <v>95</v>
@@ -4942,7 +4942,7 @@
         <v>51</v>
       </c>
       <c r="S33" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T33" s="35" t="s">
         <v>93</v>
@@ -4973,13 +4973,13 @@
         <v>46043</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J34" s="35" t="s">
         <v>51</v>
@@ -4993,7 +4993,7 @@
         <v>51</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P34" s="35" t="s">
         <v>95</v>
@@ -5005,7 +5005,7 @@
         <v>51</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T34" s="35" t="s">
         <v>93</v>
@@ -5036,13 +5036,13 @@
         <v>46043</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="J35" s="35" t="s">
         <v>51</v>
@@ -5056,7 +5056,7 @@
         <v>51</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P35" s="35" t="s">
         <v>95</v>
@@ -5068,7 +5068,7 @@
         <v>51</v>
       </c>
       <c r="S35" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T35" s="35" t="s">
         <v>93</v>
@@ -5099,13 +5099,13 @@
         <v>46043</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>51</v>
@@ -5119,7 +5119,7 @@
         <v>51</v>
       </c>
       <c r="O36" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P36" s="35" t="s">
         <v>95</v>
@@ -5131,7 +5131,7 @@
         <v>51</v>
       </c>
       <c r="S36" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T36" s="35" t="s">
         <v>93</v>
@@ -5162,13 +5162,13 @@
         <v>46043</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J37" s="35" t="s">
         <v>51</v>
@@ -5182,7 +5182,7 @@
         <v>51</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P37" s="35" t="s">
         <v>95</v>
@@ -5194,7 +5194,7 @@
         <v>51</v>
       </c>
       <c r="S37" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T37" s="35" t="s">
         <v>93</v>
@@ -5225,13 +5225,13 @@
         <v>46043</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J38" s="35" t="s">
         <v>51</v>
@@ -5245,7 +5245,7 @@
         <v>51</v>
       </c>
       <c r="O38" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P38" s="35" t="s">
         <v>95</v>
@@ -5257,7 +5257,7 @@
         <v>51</v>
       </c>
       <c r="S38" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T38" s="35" t="s">
         <v>93</v>
@@ -5288,13 +5288,13 @@
         <v>46043</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J39" s="35" t="s">
         <v>51</v>
@@ -5308,7 +5308,7 @@
         <v>51</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P39" s="35" t="s">
         <v>95</v>
@@ -5320,7 +5320,7 @@
         <v>51</v>
       </c>
       <c r="S39" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T39" s="35" t="s">
         <v>93</v>
@@ -5351,13 +5351,13 @@
         <v>46043</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I40" s="39" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J40" s="35" t="s">
         <v>51</v>
@@ -5371,7 +5371,7 @@
         <v>51</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P40" s="35" t="s">
         <v>95</v>
@@ -5383,7 +5383,7 @@
         <v>51</v>
       </c>
       <c r="S40" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T40" s="35" t="s">
         <v>93</v>
@@ -5414,13 +5414,13 @@
         <v>46043</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I41" s="39" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J41" s="35" t="s">
         <v>51</v>
@@ -5434,7 +5434,7 @@
         <v>51</v>
       </c>
       <c r="O41" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P41" s="35" t="s">
         <v>95</v>
@@ -5446,7 +5446,7 @@
         <v>51</v>
       </c>
       <c r="S41" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T41" s="35" t="s">
         <v>93</v>
@@ -5477,13 +5477,13 @@
         <v>46043</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I42" s="39" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J42" s="35" t="s">
         <v>51</v>
@@ -5497,7 +5497,7 @@
         <v>51</v>
       </c>
       <c r="O42" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P42" s="35" t="s">
         <v>95</v>
@@ -5509,7 +5509,7 @@
         <v>51</v>
       </c>
       <c r="S42" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T42" s="35" t="s">
         <v>93</v>
@@ -5540,13 +5540,13 @@
         <v>46043</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I43" s="39" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J43" s="35" t="s">
         <v>51</v>
@@ -5560,7 +5560,7 @@
         <v>51</v>
       </c>
       <c r="O43" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P43" s="35" t="s">
         <v>95</v>
@@ -5572,7 +5572,7 @@
         <v>51</v>
       </c>
       <c r="S43" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T43" s="35" t="s">
         <v>93</v>
@@ -5603,13 +5603,13 @@
         <v>46043</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J44" s="35" t="s">
         <v>51</v>
@@ -5623,7 +5623,7 @@
         <v>51</v>
       </c>
       <c r="O44" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P44" s="35" t="s">
         <v>95</v>
@@ -5635,7 +5635,7 @@
         <v>51</v>
       </c>
       <c r="S44" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T44" s="35" t="s">
         <v>93</v>
@@ -5666,13 +5666,13 @@
         <v>46043</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I45" s="39" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J45" s="45" t="s">
         <v>51</v>
@@ -5686,7 +5686,7 @@
         <v>51</v>
       </c>
       <c r="O45" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P45" s="35" t="s">
         <v>95</v>
@@ -5698,7 +5698,7 @@
         <v>51</v>
       </c>
       <c r="S45" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T45" s="35" t="s">
         <v>93</v>
@@ -5846,7 +5846,7 @@
         <v>51</v>
       </c>
       <c r="O48" s="33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P48" s="35" t="s">
         <v>95</v>
@@ -5858,7 +5858,7 @@
         <v>51</v>
       </c>
       <c r="S48" s="33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T48" s="35" t="s">
         <v>93</v>
@@ -5909,7 +5909,7 @@
         <v>51</v>
       </c>
       <c r="O49" s="33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P49" s="35" t="s">
         <v>95</v>
@@ -5921,7 +5921,7 @@
         <v>51</v>
       </c>
       <c r="S49" s="33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T49" s="35" t="s">
         <v>93</v>
@@ -5952,13 +5952,13 @@
         <v>46043</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J50" s="35" t="s">
         <v>51</v>
@@ -5972,7 +5972,7 @@
         <v>51</v>
       </c>
       <c r="O50" s="33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P50" s="35" t="s">
         <v>95</v>
@@ -5984,7 +5984,7 @@
         <v>51</v>
       </c>
       <c r="S50" s="33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T50" s="35" t="s">
         <v>93</v>
@@ -6015,13 +6015,13 @@
         <v>46044</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I51" s="39" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="J51" s="35" t="s">
         <v>51</v>
@@ -6035,7 +6035,7 @@
         <v>51</v>
       </c>
       <c r="O51" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P51" s="35" t="s">
         <v>95</v>
@@ -6047,7 +6047,7 @@
         <v>51</v>
       </c>
       <c r="S51" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="T51" s="35" t="s">
         <v>93</v>
@@ -6075,16 +6075,16 @@
         <v>175</v>
       </c>
       <c r="F52" s="34">
-        <v>46041</v>
+        <v>46070</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="J52" s="35" t="s">
         <v>51</v>
@@ -6124,16 +6124,16 @@
         <v>176</v>
       </c>
       <c r="F53" s="34">
-        <v>46041</v>
+        <v>46070</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="J53" s="35" t="s">
         <v>51</v>
@@ -6176,13 +6176,13 @@
         <v>46069</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J54" s="35" t="s">
         <v>51</v>
@@ -12446,21 +12446,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -12604,32 +12589,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12647,6 +12622,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#MEDIANETSERVIZISRLX1/MedianetServizi/4Handy.it/2025.12/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#MEDIANETSERVIZISRLX1/MedianetServizi/4Handy.it/2025.12/accreditamento-checklist_V8.2.7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A1#111#MEDIANETSERVIZISRLX1\MedianetServizi\4Handy.it\2025.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34272E6C-7D81-4E49-8267-7F44315883D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD1E206-5430-41FC-AE87-046660F95B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$51</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1185,22 +1186,22 @@
     <t>2026-02-16T10:33:39.927+01:00</t>
   </si>
   <si>
-    <t>2026-02-17T10:04:00.782+01:00</t>
-  </si>
-  <si>
-    <t>2026-02-17T11:08:43.227+01:00</t>
-  </si>
-  <si>
-    <t>74f8f911544fe49eb1b6c04266a71506</t>
-  </si>
-  <si>
-    <t>002da5eda0fbd4b90a7e3e60d375e6b7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.70.4.4.f280c5bb7f995fb5e1a21e4781710a56b1131f86866da264f3ad3096bed079f7.86614db4f2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.70.4.4.edd2859e5fb7a43c510695a407665149c8f34266c37e252ef70258600df83ac9.2afde9c446^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-02-23T16:12:33.895+01:00</t>
+  </si>
+  <si>
+    <t>f95405c6e7a0bc2e14fcb2cd27e4ba51</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.70.4.4.f280c5bb7f995fb5e1a21e4781710a56b1131f86866da264f3ad3096bed079f7.385303491b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-23T16:31:26.849+01:00</t>
+  </si>
+  <si>
+    <t>edaf1ebca6b195267ce69092387069cd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.70.4.4.edd2859e5fb7a43c510695a407665149c8f34266c37e252ef70258600df83ac9.fe7b15dfcc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3255,7 +3256,7 @@
   <dimension ref="A1:W611"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
@@ -6075,16 +6076,16 @@
         <v>175</v>
       </c>
       <c r="F52" s="34">
-        <v>46070</v>
+        <v>46076</v>
       </c>
       <c r="G52" s="34" t="s">
         <v>300</v>
       </c>
       <c r="H52" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="I52" s="39" t="s">
         <v>302</v>
-      </c>
-      <c r="I52" s="39" t="s">
-        <v>304</v>
       </c>
       <c r="J52" s="35" t="s">
         <v>51</v>
@@ -6124,13 +6125,13 @@
         <v>176</v>
       </c>
       <c r="F53" s="34">
-        <v>46070</v>
+        <v>46076</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I53" s="39" t="s">
         <v>305</v>
@@ -12446,6 +12447,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -12589,22 +12605,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12622,31 +12648,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
